--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560329/JX560329_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560329/JX560329_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89308602698</v>
+        <v>45441.83335469687</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1275_1278del']</t>
+          <t>['1306_1412instaaacgtccaaagtggagcacaaataagctgtatcatgagttacaaagaagatgacattttcctcgtgtgtgcaggcaacttaaccgagagtttttgttgaatcta', '1393_1456insgggacgtgaatgcaggcatacgagcgacggtatgcaccgacgatgcggccctccactaactcg', '1235_1352del', '1314_1379del', '1457_1533del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89308605011</v>
+        <v>45441.83335472582</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['223c&gt;t']</t>
+          <t>['192_222instgagctgcacatgtactggaagatcaagcg', '157_292del', '181_299insaattatatgagaggggtagtatgtccaattgccttcacttccatttgggtgagcctcccactcaatgtcattaggttcagtcccggccatgtctgagtttgggttataagtgtaacac', '185_288del', '185_305del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89308607325</v>
+        <v>45441.83335474897</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3522a&gt;c']</t>
+          <t>['3524_3599insactacgaactagcacgattcagaccacacgagggcaattcctacggtaagctggggagtcaagttagataattac', '3559_3638inscttcaacgacccggtatctatgctggtcactaataagaacggcctcctcaaacgtgacatactatcttctgagcaagcg', '3566_3610del', '3515_3579del', '3539_3591del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89308609063</v>
+        <v>45441.83335477212</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1423_1427del']</t>
+          <t>['1365_1382del', '1264_1328del', '1242_1337del', '1371_1427insatagtgccaggctatcgtccgaacgaaattctaatatgttttactttctatgagca', '1255_1282insatcgtatcttacaacaaagatgccgac']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['241g&gt;a']</t>
+          <t>['162_311del', '180_195insacttcccttcggatg', '226_341del', '236_335insgacttgttcagtctcgagaattgggatggggatgggaaccgcagtgcgacacgcacggaaacctagagagaccaaggcttatagtaaggtttccactat', '249_293del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89308611387</v>
+        <v>45441.83335478948</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1450t&gt;a']</t>
+          <t>['1300_1402del', '1404_1495del', '1386_1448del', '1269_1301del', '1336_1401del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3555g&gt;c']</t>
+          <t>['3484_3537del', '3473_3616del', '3543_3660del', '3518_3649del', '3521_3579instagttaagtgtcctctaagccgcacgatatttttactttgggtagccttggcagtatt']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89308613126</v>
+        <v>45441.83335481262</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['213_217insatcc']</t>
+          <t>['183_249inscaccgccgtgtgtgttatgactaaaaaccaatgaccctactttcgttgtcacatgcaaaccgttaa', '221_317del', '174_217del', '229_322insagaatggctagggcgagactagtgaataggacagaatacaaattctgttctgcacttgctcgcctccagaagccaagtaccgatcttgataca', '242_254insccactaaacgcg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3476_3478del']</t>
+          <t>['3523_3653del', '3466_3509del', '3501_3608del', '3541_3605del', '3469_3506del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89308615441</v>
+        <v>45441.83335483002</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1402_1403insa']</t>
+          <t>['1369_1426insaaattaggtcgactgtgcaccccttgtccgatttttaagtggagtagacaacaatac', '1374_1453del', '1233_1346insttgacactgggagtactcaatgtaaacggaggtgagaccggaatccttattcaacagagtggaagtgattctagaaccttcgtccctagatactgctgtcgacaggtcacagg', '1306_1380del', '1445_1462insccgtacctggatctgcc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['157c&gt;g']</t>
+          <t>['217_340del', '231_345del', '216_328insttagatctttatctttttcaccaatggataacatgtcggagccttgggatgaggtagatctttacaggccaacgatcggacgatctggtcctgcgtcgtaatggaaccgggc', '207_311del', '159_234inscttaattggcatatagccgccacctccaccattcattttctctcagggacccagcaggcccgcggcgcgaagctt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3495a&gt;g']</t>
+          <t>['3491_3501del', '3557_3578insaaacgggttgaaccctggcca', '3477_3609inscatgaccagttaacagcttagatgtatggttgtatcggataaaacaatcttgtgcccatggagaagcctggaacctttcccgttatcaaaaagtcgagaggccgtacttatccggccacaacgggccgatcg', '3556_3679insagggctaagttggacttgattttgactagctagagtcgctaccgtcacgcctggcgctaggcttaatgctaaaagtacagagacaagaacgtctgacggcacgctctacttgcgtcagatttc', '3534_3573insaaatgtgagcgaggatgccctgtggattcagtcgaacca']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89308617175</v>
+        <v>45441.83335485894</v>
       </c>
     </row>
   </sheetData>
